--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Brand Management" sheetId="1" r:id="rId1"/>
+    <sheet name="Brand Setting" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Brand register</t>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>payout currency</t>
+  </si>
+  <si>
+    <t>store currency</t>
+  </si>
+  <si>
+    <t>mmk</t>
   </si>
 </sst>
 </file>
@@ -339,21 +348,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
